--- a/Data_file/ผลิต1-1.xlsx
+++ b/Data_file/ผลิต1-1.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$1015</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1008,8 +1011,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1149,7 +1153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,6 +1195,11 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1473,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A994" workbookViewId="0">
-      <selection activeCell="K1010" sqref="K1010"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L316" sqref="L316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1486,6 +1495,7 @@
     <col min="5" max="5" width="20.21875" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" thickBot="1">
@@ -1513,7 +1523,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -10217,8 +10227,8 @@
       <c r="H273" s="13">
         <v>41</v>
       </c>
-      <c r="I273" s="13">
-        <v>0</v>
+      <c r="I273" s="18">
+        <v>1E-4</v>
       </c>
       <c r="J273" s="13">
         <v>272</v>
@@ -10249,8 +10259,8 @@
       <c r="H274" s="13">
         <v>2</v>
       </c>
-      <c r="I274" s="13">
-        <v>0</v>
+      <c r="I274" s="18">
+        <v>1E-4</v>
       </c>
       <c r="J274" s="13">
         <v>273</v>
@@ -10281,8 +10291,8 @@
       <c r="H275" s="13">
         <v>39</v>
       </c>
-      <c r="I275" s="13">
-        <v>0</v>
+      <c r="I275" s="18">
+        <v>1E-4</v>
       </c>
       <c r="J275" s="13">
         <v>274</v>
@@ -10345,8 +10355,8 @@
       <c r="H277" s="13">
         <v>7</v>
       </c>
-      <c r="I277" s="13">
-        <v>0</v>
+      <c r="I277" s="18">
+        <v>1E-4</v>
       </c>
       <c r="J277" s="13">
         <v>276</v>
@@ -11593,8 +11603,8 @@
       <c r="H316" s="13">
         <v>41</v>
       </c>
-      <c r="I316" s="13">
-        <v>0</v>
+      <c r="I316" s="18">
+        <v>1E-4</v>
       </c>
       <c r="J316" s="13">
         <v>315</v>
@@ -11625,8 +11635,8 @@
       <c r="H317" s="13">
         <v>2</v>
       </c>
-      <c r="I317" s="13">
-        <v>0</v>
+      <c r="I317" s="18">
+        <v>1E-4</v>
       </c>
       <c r="J317" s="13">
         <v>316</v>
@@ -11657,8 +11667,8 @@
       <c r="H318" s="13">
         <v>39</v>
       </c>
-      <c r="I318" s="13">
-        <v>0</v>
+      <c r="I318" s="18">
+        <v>1E-4</v>
       </c>
       <c r="J318" s="13">
         <v>317</v>
@@ -11721,8 +11731,8 @@
       <c r="H320" s="13">
         <v>7</v>
       </c>
-      <c r="I320" s="13">
-        <v>0</v>
+      <c r="I320" s="18">
+        <v>1E-4</v>
       </c>
       <c r="J320" s="13">
         <v>319</v>
@@ -16233,8 +16243,8 @@
       <c r="H461" s="13">
         <v>200</v>
       </c>
-      <c r="I461" s="13">
-        <v>0</v>
+      <c r="I461" s="18">
+        <v>1E-4</v>
       </c>
       <c r="J461" s="13">
         <v>460</v>
@@ -27561,8 +27571,8 @@
       <c r="H815" s="13">
         <v>4</v>
       </c>
-      <c r="I815" s="13">
-        <v>0</v>
+      <c r="I815" s="18">
+        <v>1E-4</v>
       </c>
       <c r="J815" s="13">
         <v>814</v>
@@ -33969,6 +33979,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I1015"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
